--- a/biology/Médecine/Jan_Palfijn/Jan_Palfijn.xlsx
+++ b/biology/Médecine/Jan_Palfijn/Jan_Palfijn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Palfijn, né le 28 novembre 1650 à Courtrai en Flandre et mort le 21 avril 1730 à Gand, fut un chirurgien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disciple du chirurgien et célèbre anatomiste Philip Verheyen, il devient lui-même chirurgien, expert en obstétrique et en anatomie. Il  perfectionna plusieurs points de chirurgie et invente en 1722 le forceps[1], connu sous le nom de "tire-tête de Palfin".  En 1670, il est poursuivi pour enlèvement de corps humains dans sa propre ville et il émigre à Ypres, qu'il quitte pour Paris en 1694, pour poursuivre ses études à l'Hôtel-Dieu. En 1697, il repart en Flandre et s'installe à Gand, où il exerce comme médecin de la ville et professeur spécialiste en obstétrique et finit par mourir le 21 avril 1730.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disciple du chirurgien et célèbre anatomiste Philip Verheyen, il devient lui-même chirurgien, expert en obstétrique et en anatomie. Il  perfectionna plusieurs points de chirurgie et invente en 1722 le forceps, connu sous le nom de "tire-tête de Palfin".  En 1670, il est poursuivi pour enlèvement de corps humains dans sa propre ville et il émigre à Ypres, qu'il quitte pour Paris en 1694, pour poursuivre ses études à l'Hôtel-Dieu. En 1697, il repart en Flandre et s'installe à Gand, où il exerce comme médecin de la ville et professeur spécialiste en obstétrique et finit par mourir le 21 avril 1730.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses œuvres ont connu de nombreuses rééditions dans de nombreuses langues.
 " Anatomycke of ontleedkundige beschryving, rakende de wonderbare gesteltenis van eeinge uyt, en innerlijcke deelen van twee kinderen... geboren binnen de stadt van Ghendt op den 28. April 1703... [Opgedragen door Jan Palfyn.] Te Ghendt by d'Erfgenamen van M. Graet, 1703
